--- a/data/trans_dic/P23_DUKE_AF_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AF_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social afectivo bajo</t>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>63,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>44,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>55,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>57,48%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>48,99%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53,6%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>50,93%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 23,8</t>
+          <t>29,94; 68,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 17,93</t>
+          <t>35,21; 72,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 12,75</t>
+          <t>32,98; 70,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,85; 19,42</t>
+          <t>34,3; 71,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 19,5</t>
+          <t>49,45; 77,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 19,26</t>
+          <t>30,9; 58,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 18,13</t>
+          <t>39,2; 68,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 14,72</t>
+          <t>33,17; 63,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 12,77</t>
+          <t>46,08; 68,58</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>36,47; 61,33</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41,46; 65,48</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39,58; 63,02</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>65,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>74,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>75,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>79,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>73,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>70,41%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>76,82%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>71,4%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>84,91%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 44,47</t>
+          <t>36,92; 84,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,52; 43,54</t>
+          <t>58,22; 88,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 55,09</t>
+          <t>48,28; 85,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,41; 34,68</t>
+          <t>79,51; 97,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 20,25</t>
+          <t>62,24; 86,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 19,62</t>
+          <t>65,72; 87,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,45; 31,39</t>
+          <t>60,47; 84,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 30,06</t>
+          <t>60,97; 87,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,33; 36,86</t>
+          <t>52,59; 81,42</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>66,36; 85,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>60,55; 82,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>74,88; 92,12</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>81,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>78,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>83,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>70,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>79,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>77,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>74,51%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>78,89%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>79,98%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>69,76%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,89; 50,18</t>
+          <t>66,61; 91,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 42,64</t>
+          <t>66,2; 87,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 48,92</t>
+          <t>70,11; 91,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,45; 28,27</t>
+          <t>55,0; 81,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 25,99</t>
+          <t>59,84; 78,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 26,1</t>
+          <t>70,84; 86,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,95; 35,62</t>
+          <t>69,48; 84,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 30,09</t>
+          <t>60,21; 77,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,83; 33,35</t>
+          <t>68,05; 81,55</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>72,33; 84,93</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>72,74; 85,78</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>62,28; 76,95</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>81,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>74,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>70,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>74,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>81,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>74,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>76,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>81,55%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>81,15%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>72,7%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>75,3%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,2; 20,14</t>
+          <t>71,27; 89,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,33; 28,43</t>
+          <t>63,08; 83,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 23,08</t>
+          <t>59,68; 79,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,79; 32,78</t>
+          <t>62,28; 83,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,72; 42,0</t>
+          <t>73,02; 88,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,99; 38,11</t>
+          <t>79,81; 92,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,22; 25,65</t>
+          <t>65,24; 82,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,99; 32,41</t>
+          <t>65,73; 84,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 29,78</t>
+          <t>75,45; 87,0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>74,65; 86,91</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>65,76; 79,01</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>67,85; 81,24</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>71,36%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>74,81%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>67,29%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>65,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>64,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>73,32%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>63,34%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>66,46%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>70,31%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>69,98%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,91; 24,36</t>
+          <t>48,13; 74,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,43; 37,32</t>
+          <t>58,18; 83,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 26,79</t>
+          <t>62,63; 85,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,38; 17,49</t>
+          <t>53,91; 78,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,06; 34,53</t>
+          <t>50,41; 78,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,82; 34,85</t>
+          <t>44,65; 73,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,52; 18,79</t>
+          <t>48,42; 76,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,61; 33,18</t>
+          <t>57,41; 85,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,07; 27,32</t>
+          <t>53,18; 72,69</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>55,16; 76,06</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>61,01; 79,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>60,64; 78,41</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>56,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>77,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>57,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>58,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>57,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>59,5%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>54,59%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>57,71%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>66,06%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 25,28</t>
+          <t>48,94; 82,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,45; 23,71</t>
+          <t>32,37; 70,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 20,3</t>
+          <t>37,52; 75,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,83; 32,94</t>
+          <t>57,66; 89,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,4; 26,17</t>
+          <t>31,62; 67,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,29; 61,83</t>
+          <t>39,01; 73,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,33; 26,36</t>
+          <t>40,74; 75,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,07; 22,58</t>
+          <t>40,18; 72,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 52,84</t>
+          <t>46,25; 70,18</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>39,7; 66,74</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>45,4; 69,79</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>54,13; 77,8</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>69,9%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>69,53%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>68,9%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>73,96%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>69,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>71,45%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>69,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>67,57%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>69,81%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>70,55%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>69,12%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>70,69%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,9; 24,43</t>
+          <t>62,01; 75,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,32; 24,83</t>
+          <t>63,18; 75,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,26; 25,55</t>
+          <t>62,48; 75,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,27; 23,11</t>
+          <t>67,17; 79,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,86; 23,7</t>
+          <t>64,71; 74,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,6; 30,6</t>
+          <t>66,51; 76,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,3; 22,21</t>
+          <t>64,15; 73,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,22; 22,31</t>
+          <t>62,08; 72,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,28; 24,45</t>
+          <t>65,23; 73,41</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>66,88; 74,14</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>65,36; 73,03</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>66,75; 74,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>53821</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>54687</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>63940</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>70668</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>84724</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>52492</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>65964</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>71461</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>138544</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>107179</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>129904</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>142129</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>32039; 73030</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35856; 74281</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>40420; 86468</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>45811; 95400</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>66262; 103258</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36143; 67971</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>46961; 82104</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48254; 91773</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>111068; 165286</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>79788; 134186</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>100484; 158712</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>110460; 175866</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>111219</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>107507</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>103004</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>207403</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>111483</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>95108</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>91440</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>121386</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>222701</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>202615</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>194444</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>328789</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>62299; 141952</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>83484; 127169</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>71567; 127146</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>181030; 221093</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>91821; 127956</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>79099; 105762</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>75047; 104736</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>97271; 138907</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>166334; 257520</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>175020; 225786</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>164915; 224690</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>289964; 356719</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>128300</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>99798</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>106931</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>120847</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>180282</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>163081</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>156145</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>162973</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>308582</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>262880</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>263076</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>283819</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>104276; 142831</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>84681; 112498</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>90067; 117890</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>94209; 140141</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>154172; 202122</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>145420; 178577</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>139291; 170258</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>141856; 183590</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>281857; 337761</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>240997; 282988</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>239278; 282154</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>253384; 313065</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>139108</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>108058</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>104741</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>137789</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>165484</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>149027</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>119656</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>157129</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>304591</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>257086</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>224397</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>294918</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>121343; 152142</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>92091; 121931</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>88298; 118162</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>115840; 154380</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>148401; 180508</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>136339; 158618</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>104831; 132602</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>135188; 172795</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>281797; 324917</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>236510; 275334</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>202958; 243844</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>265725; 318175</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>79257</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>73317</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>81740</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>95432</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>68262</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>45532</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>50572</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>84005</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>147519</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>118849</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>132312</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>179437</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>61827; 96136</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>59772; 86143</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>68433; 93291</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>76462; 111878</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>52640; 82030</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>33973; 56214</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>38209; 60622</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>65775; 97840</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>123837; 169281</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>98652; 136029</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>114801; 148704</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>155479; 201034</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>68012</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>30154</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>36042</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>85643</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>50351</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>49894</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>52948</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>92153</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>118363</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>80048</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>88989</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>177796</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>48111; 81132</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>19145; 41717</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>24010; 48232</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>63529; 98882</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>31819; 67515</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>34126; 64720</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>36750; 68243</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>63867; 115782</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>92005; 139623</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>58214; 97868</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>70003; 107609</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>145689; 209375</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>456.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>468.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>579715</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>473521</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>496398</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>717781</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>660586</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>555135</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>536725</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>689107</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1240301</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1028656</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1033123</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1406889</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>514269; 624056</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>430239; 513122</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>450121; 543628</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>651866; 775891</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>613096; 704726</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>516795; 590497</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>496634; 572162</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>633128; 740362</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1159085; 1304317</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>975069; 1080964</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>976850; 1091498</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1328491; 1483764</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>